--- a/6) Апрель/915/915 Системное программирование_апрель.xlsx
+++ b/6) Апрель/915/915 Системное программирование_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68B6C1-2DE5-4166-BD8F-D0D6049AC362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D0009C-7594-49C3-9E9C-144E6CCB4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10395" yWindow="1995" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ФИО</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Заполнен до сюда</t>
+  </si>
+  <si>
+    <t>Лаба 4</t>
+  </si>
+  <si>
+    <t>Лекция 12</t>
   </si>
 </sst>
 </file>
@@ -165,11 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,12 +478,12 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="16.140625" customWidth="1"/>
@@ -496,7 +500,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>45750</v>
       </c>
       <c r="C1" s="1">
@@ -511,10 +515,10 @@
       <c r="F1" s="1">
         <v>45755</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>45757</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>45757</v>
       </c>
       <c r="I1" s="1">
@@ -527,7 +531,7 @@
         <v>45759</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -547,176 +551,151 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -766,6 +745,21 @@
       <c r="F28" t="s">
         <v>31</v>
       </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -777,7 +771,7 @@
       <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="V31" s="4"/>
+      <c r="V31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
